--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_420__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_420__Reeval_Halton_Modell_1.1.xlsx
@@ -5996,34 +5996,34 @@
                   <c:v>2.47154974937439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.18283081054688</c:v>
+                  <c:v>24.18282318115234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.33706665039062</c:v>
+                  <c:v>50.33706283569336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.420388460159302</c:v>
+                  <c:v>2.420383453369141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.14760589599609</c:v>
+                  <c:v>45.14761352539062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.463779926300049</c:v>
+                  <c:v>2.463777303695679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.500409364700317</c:v>
+                  <c:v>2.500406980514526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.21637535095215</c:v>
+                  <c:v>15.21637344360352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.33148193359375</c:v>
+                  <c:v>50.33147811889648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.485905885696411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.352191686630249</c:v>
+                  <c:v>2.352189302444458</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50.34264373779297</c:v>
@@ -6032,34 +6032,34 @@
                   <c:v>43.19174957275391</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.741830348968506</c:v>
+                  <c:v>2.74182915687561</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.783316135406494</c:v>
+                  <c:v>1.783312439918518</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44.07260131835938</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.316036224365234</c:v>
+                  <c:v>2.316033601760864</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.258477687835693</c:v>
+                  <c:v>2.258476495742798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.63801956176758</c:v>
+                  <c:v>44.63801574707031</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.503727197647095</c:v>
+                  <c:v>2.503724575042725</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>50.32986068725586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.110482215881348</c:v>
+                  <c:v>3.110484838485718</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.50491189956665</c:v>
+                  <c:v>2.504910707473755</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.492109060287476</c:v>
@@ -6068,16 +6068,16 @@
                   <c:v>40.96557235717773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.52316284179688</c:v>
+                  <c:v>44.52315521240234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.02252197265625</c:v>
+                  <c:v>48.02251815795898</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.478624582290649</c:v>
+                  <c:v>2.478622198104858</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.486351728439331</c:v>
+                  <c:v>2.486354112625122</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44.71921539306641</c:v>
@@ -6089,19 +6089,19 @@
                   <c:v>2.409650802612305</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.447564601898193</c:v>
+                  <c:v>2.447562217712402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.048109292984009</c:v>
+                  <c:v>2.048111915588379</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.478786706924438</c:v>
+                  <c:v>2.478784322738647</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.434113502502441</c:v>
+                  <c:v>2.434115886688232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.439313411712646</c:v>
+                  <c:v>2.439311027526855</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>39.99640655517578</c:v>
@@ -6113,16 +6113,16 @@
                   <c:v>2.509114980697632</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.40315055847168</c:v>
+                  <c:v>2.403143167495728</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.12282752990723</c:v>
+                  <c:v>14.12282276153564</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.491323232650757</c:v>
+                  <c:v>2.491324424743652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44.32135391235352</c:v>
+                  <c:v>44.32135009765625</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45.58689117431641</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>32.76271820068359</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.16207885742188</c:v>
+                  <c:v>41.16207504272461</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>50.30928039550781</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>2.482200145721436</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.589599609375</c:v>
+                  <c:v>40.58960723876953</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44.50205993652344</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>50.34157943725586</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.427955865859985</c:v>
+                  <c:v>2.427953243255615</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>45.21292877197266</c:v>
@@ -6167,16 +6167,16 @@
                   <c:v>14.41862392425537</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.219716548919678</c:v>
+                  <c:v>2.219720363616943</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.605005979537964</c:v>
+                  <c:v>2.605008602142334</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.501983642578125</c:v>
+                  <c:v>2.501986026763916</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.490701913833618</c:v>
+                  <c:v>2.490704298019409</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44.60679244995117</c:v>
@@ -6197,13 +6197,13 @@
                   <c:v>48.13010787963867</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.515819072723389</c:v>
+                  <c:v>2.515816688537598</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>13.69310569763184</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>47.56881713867188</c:v>
+                  <c:v>47.56881332397461</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>50.33173751831055</c:v>
@@ -6215,16 +6215,16 @@
                   <c:v>2.48865270614624</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.913297653198242</c:v>
+                  <c:v>9.913301467895508</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.692917346954346</c:v>
+                  <c:v>4.692919731140137</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.58981990814209</c:v>
+                  <c:v>2.589823484420776</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.63492202758789</c:v>
+                  <c:v>14.63491439819336</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9.287712097167969</c:v>
@@ -6233,43 +6233,43 @@
                   <c:v>46.73998260498047</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.39445972442627</c:v>
+                  <c:v>2.394454717636108</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27.03313255310059</c:v>
+                  <c:v>27.03312492370605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.470487594604492</c:v>
+                  <c:v>2.470485210418701</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.64490413665771</c:v>
+                  <c:v>13.64490222930908</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.454890012741089</c:v>
+                  <c:v>2.454886436462402</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.5010871887207</c:v>
+                  <c:v>44.50108337402344</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.416002511978149</c:v>
+                  <c:v>2.41600489616394</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2.475390434265137</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.413427591323853</c:v>
+                  <c:v>3.413425207138062</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.495564222335815</c:v>
+                  <c:v>2.495566844940186</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>48.93311309814453</c:v>
+                  <c:v>48.93312072753906</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.376981019973755</c:v>
+                  <c:v>2.376979827880859</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.446740865707397</c:v>
+                  <c:v>2.446744441986084</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>44.7281494140625</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>29.85891532897949</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.01730489730835</c:v>
+                  <c:v>2.017306089401245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>24.18283081054688</v>
+        <v>24.18282318115234</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>50.33706665039062</v>
+        <v>50.33706283569336</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.420388460159302</v>
+        <v>2.420383453369141</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.14760589599609</v>
+        <v>45.14761352539062</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.463779926300049</v>
+        <v>2.463777303695679</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.500409364700317</v>
+        <v>2.500406980514526</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15.21637535095215</v>
+        <v>15.21637344360352</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>50.33148193359375</v>
+        <v>50.33147811889648</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.352191686630249</v>
+        <v>2.352189302444458</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.741830348968506</v>
+        <v>2.74182915687561</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.783316135406494</v>
+        <v>1.783312439918518</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.316036224365234</v>
+        <v>2.316033601760864</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.258477687835693</v>
+        <v>2.258476495742798</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>44.63801956176758</v>
+        <v>44.63801574707031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.503727197647095</v>
+        <v>2.503724575042725</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.110482215881348</v>
+        <v>3.110484838485718</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.50491189956665</v>
+        <v>2.504910707473755</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>44.52316284179688</v>
+        <v>44.52315521240234</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>48.02252197265625</v>
+        <v>48.02251815795898</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.478624582290649</v>
+        <v>2.478622198104858</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.486351728439331</v>
+        <v>2.486354112625122</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.447564601898193</v>
+        <v>2.447562217712402</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.048109292984009</v>
+        <v>2.048111915588379</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.478786706924438</v>
+        <v>2.478784322738647</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.434113502502441</v>
+        <v>2.434115886688232</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.439313411712646</v>
+        <v>2.439311027526855</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.40315055847168</v>
+        <v>2.403143167495728</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>14.12282752990723</v>
+        <v>14.12282276153564</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.491323232650757</v>
+        <v>2.491324424743652</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>44.32135391235352</v>
+        <v>44.32135009765625</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>41.16207885742188</v>
+        <v>41.16207504272461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>40.589599609375</v>
+        <v>40.58960723876953</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.427955865859985</v>
+        <v>2.427953243255615</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.219716548919678</v>
+        <v>2.219720363616943</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.605005979537964</v>
+        <v>2.605008602142334</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2.501983642578125</v>
+        <v>2.501986026763916</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>2.490701913833618</v>
+        <v>2.490704298019409</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>2.515819072723389</v>
+        <v>2.515816688537598</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>47.56881713867188</v>
+        <v>47.56881332397461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>9.913297653198242</v>
+        <v>9.913301467895508</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>4.692917346954346</v>
+        <v>4.692919731140137</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>2.58981990814209</v>
+        <v>2.589823484420776</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>14.63492202758789</v>
+        <v>14.63491439819336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.39445972442627</v>
+        <v>2.394454717636108</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>27.03313255310059</v>
+        <v>27.03312492370605</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.470487594604492</v>
+        <v>2.470485210418701</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>13.64490413665771</v>
+        <v>13.64490222930908</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.454890012741089</v>
+        <v>2.454886436462402</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>44.5010871887207</v>
+        <v>44.50108337402344</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.416002511978149</v>
+        <v>2.41600489616394</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>3.413427591323853</v>
+        <v>3.413425207138062</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2.495564222335815</v>
+        <v>2.495566844940186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>48.93311309814453</v>
+        <v>48.93312072753906</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.376981019973755</v>
+        <v>2.376979827880859</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2.446740865707397</v>
+        <v>2.446744441986084</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.01730489730835</v>
+        <v>2.017306089401245</v>
       </c>
     </row>
     <row r="102" spans="1:6">
